--- a/src/analysis_examples/circadb/results_jtk/cosinor_10509777_iffo2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10509777_iffo2_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23739000961092638, 0.36197945311654356]</t>
+          <t>[0.2378325690941439, 0.36153689363332603]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.922166648071766e-09</v>
+        <v>1.696281337615346e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.922166648071766e-09</v>
+        <v>1.696281337615346e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.031473864241693</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2327370572644636, -0.8302106712189232]</t>
+          <t>[-1.2327370572644627, -0.8302106712189241]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.49393231115261393, 0.5598570419035513]</t>
+          <t>[0.49394625904424616, 0.5598430940119191]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.874274274274367</v>
       </c>
       <c r="X2" t="n">
-        <v>3.11831831831839</v>
+        <v>3.118318318318393</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.630230230230343</v>
+        <v>4.63023023023034</v>
       </c>
     </row>
   </sheetData>
